--- a/medicine/Mort/La_Voleuse_de_livres/La_Voleuse_de_livres.xlsx
+++ b/medicine/Mort/La_Voleuse_de_livres/La_Voleuse_de_livres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Voleuse de livres (The Book Thief) est un roman de l'écrivain australien Markus Zusak, publié en 2005 en Australie et en 2007 en France aux éditions OH !, dans une traduction de Marie-France Girod.
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allemagne, pendant la Seconde Guerre mondiale. Le parti nazi d'Hitler est tout-puissant et ses adeptes chaque jour plus nombreux. La Mort, collectionneuse réticente d'âmes, nous raconte une histoire, rare plaisir d'une existence vouée à emporter nos âmes à l'heure de notre mort.
 Cette histoire est celle de Liesel Meminger, que l'on découvre alors que son frère et elle sont envoyés par leur mère dans une famille d'accueil, à Molching.C'était aussi la première fois que la Mort rencontrait Liesel, qu'elle reverrait encore à deux reprises tout au long des évènements qui jalonneront sa vie. En effet, Werner, le frère de Liesel meurt, emporté par la toux, dans le train qui les conduit vers leur nouvelle famille d'accueil. Lors de l'enterrement, Liesel vole son premier livre, Le Manuel du Fossoyeur, tombé dans la neige de la poche du jeune garçon qui fait office d'aide du fossoyeur. Bien qu'elle ne sache pas lire, ce "vol" est le premier d'une série de nombreux autres (d'où le titre). Elle ne devait plus jamais revoir sa mère.
@@ -559,22 +573,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liesel Meminger
-La protagoniste de l'histoire est une fille adoptive au seuil de l'adolescence, avec des cheveux blonds qui sont "une marque de blonde allemande assez proche" et un "sourire affamé" quand elle le montre. Ses yeux sont cependant bruns. Les Hubermann l'ont nourrie après que son père biologique ait "abandonné" leur famille, son frère est décédé et sa mère a été obligée de l'envoyer dans une famille d'accueil en raison de sa croyance (communisme), interdite à l'époque. Liesel est la "voleuse de livres" mentionnée dans le titre. Liesel est fascinée par le pouvoir des mots, comme le montre la citation: "J'ai détesté les mots et je les ai aimés." Elle vole des livres à la neige, au feu et à la femme du maire.
-Hans Hubermann
-Père nourricier de Liesel et mari de Rosa, Hans est un ancien soldat allemand pendant la Première Guerre mondiale, accordéoniste et peintre. Il développe une relation étroite et affectueuse avec Liesel et devient pour elle une source principale de force et de soutien tout au long du roman. Comme Liesel, il n'a pas beaucoup d'expérience en lecture. Ensemble, ils s’entraident pour lire et écrivent tous les mots qu’ils apprennent sur un mur du sous-sol avec ses pots de peinture blanche. Il aide Max parce que son père s'est sacrifié pour sauver Hans lors de la Première Guerre mondiale.
-Rosa Hubermann
-La mère adoptive de Liesel, à la langue acerbe, souvent abrasive, a une carrure «garde-robe» et un visage contrarié, des cheveux brun-gris très serrés, souvent ligotés dans un chignon et des yeux «chlorés». Malgré son tempérament, elle est une épouse aimante pour Hans et une mère pour Liesel. Pour compléter le revenu du ménage, elle lave et repasse cinq des ménages les plus riches de Molching.
-Rudy Steiner
-Le voisin de Liesel, Rudy, a les jambes maigres, les yeux bleus, les cheveux couleur citron et un penchant pour se mettre au milieu de situations où il ne devrait pas. Bien qu'ayant l'apparence d'un archétypal allemand, il ne soutient pas directement les nazis. En tant que membre d’un ménage relativement pauvre avec six enfants, Rudy a habituellement faim. Il est connu dans tout le quartier à cause de "l'incident de Jesse Owens", dans lequel il s'est coloré de charbon une nuit et a couru cent mètres sur le terrain de sport local. Il est doué sur le plan académique et sportif, ce qui attire l'attention des responsables du parti nazi et conduit à une tentative de recrutement. Son manque de soutien pour le parti nazi devient problématique à mesure que l'histoire avance. Rudy devient le meilleur ami de Liesel et finit par tomber amoureux d'elle, essayant toujours de l'embrasser.
-Max Vandenburg
-Un poing-combattant juif qui se réfugie dans le sous-sol de Hubermann contre le régime nazi. Il est le fils d'un soldat allemand de la Première Guerre mondiale qui a combattu aux côtés de Hans Hubermann. Ils ont noué une amitié étroite pendant la guerre. Il a les cheveux bruns comme une plume et les yeux bruns marrons. Pendant le règne de la terreur nazie, Hans accepte de mettre Max à l'abri et de le cacher du parti nazi. Pendant son séjour chez les Hubermann, Max se lie d'amitié avec Liesel, en raison de leur affinité commune pour les mots. Il lui écrit deux livres et lui présente un carnet contenant son récit de vie, ce qui aide Liesel à se développer en tant qu'écrivain et lecteur, ce qui lui sauve la vie des bombes.
-Ilsa Hermann
-L'épouse du maire de Molching qui emploie Rosa Hubermann. Elle est entrée dans la dépression après la mort de son fils unique pendant la Grande Guerre. Ilsa permet à Liesel de visiter et de lire des livres dans sa bibliothèque personnelle. Elle donne également à Liesel un petit livre noir, ce qui l'amène à écrire sa propre histoire, "La voleuse de livres".
-Werner Meminger
-Le petit frère de Liesel, décédé subitement dans le train avec sa mère, alors qu'il était transporté chez leurs parents d'accueil.
-Paula Meminger
-La mère de Liesel n'est mentionnée que quelques fois dans l'histoire. Le père de Liesel avait été emmené par les nazis avant le roman parce qu'il était communiste et que sa mère - Paula Meminger - prenait ses deux enfants en famille d'accueil pour les sauver de la persécution nazie. La mère de Liesel a connu le même sort que son père, mais Liesel réalise finalement que sa mère l'a donnée pour la protéger.
+          <t>Liesel Meminger</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protagoniste de l'histoire est une fille adoptive au seuil de l'adolescence, avec des cheveux blonds qui sont "une marque de blonde allemande assez proche" et un "sourire affamé" quand elle le montre. Ses yeux sont cependant bruns. Les Hubermann l'ont nourrie après que son père biologique ait "abandonné" leur famille, son frère est décédé et sa mère a été obligée de l'envoyer dans une famille d'accueil en raison de sa croyance (communisme), interdite à l'époque. Liesel est la "voleuse de livres" mentionnée dans le titre. Liesel est fascinée par le pouvoir des mots, comme le montre la citation: "J'ai détesté les mots et je les ai aimés." Elle vole des livres à la neige, au feu et à la femme du maire.
 </t>
         </is>
       </c>
@@ -600,22 +605,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thèmes</t>
+          <t>Les personnages</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La mort
-Tout au long du roman, la Mort est omniprésente, d'une part puisque c'est elle qui raconte l'histoire, mais aussi parce que cette histoire se situe en période de guerre et dans un pays où le régime en place l'a érigée en modèle. Liesel est donc entourée par la Mort, avec qui elle va devoir composer pour survivre, grandir et garder l'espoir, prenant même des risques inouïs pour aider des fugitifs, comme Max.
-Le pouvoir des mots
-Liesel est La Voleuse de livres. Elle vole son premier livre lors de l'enterrement de son petit frère, et va, grâce à son père adoptif, à la femme du maire et à son ami Max, apprendre à lire et à écrire. Elle va également découvrir le pouvoir des mots, comme un apaisement dans une situation de stress et de tension (pendant les bombardements), mais aussi comme un moyen d'arriver à ses fins, moyen qu'utilisèrent aussi Hitler et son régime totalitaire pour asseoir leur domination sur les esprits du peuple allemand. Les livres qu'elle dérobe ou qu'on lui offre lui permettent finalement de s'évader lors des moments difficiles de son enfance.
-L'amitié
-Une grande partie de l'intrigue tourne autour de l'amitié entre Liesel et de nombreuses personnes : Rudy, son meilleur ami, complice et camarade de jeux ; Hans, son père adoptif si compréhensif et intègre ; Max, le boxeur juif qui se cache dans la cave ; ou encore la femme du maire, Ilsa Hermann, la bienfaitrice qui lui permettra d'étendre sa culture littéraire et qui va la recueillir quand la Mort viendra lui ravir tous ceux à qui elle tenait.
-La beauté et la brutalité de l'humanité
-Ce paradoxe est de nombreuses fois exprimé dans ce récit, chaque fois énoncé avec détachement par la narratrice. La brutalité de l'homme a particulièrement été rattachée à l'Allemagne nazie. Les horreurs de cette guerre sont présentées au lecteur par le biais de la persécution et du traitement inhumain des Juifs. À l'opposé, les scènes telles que celle du pilote en train de mourir sont le reflet de la beauté de l'humanité. Dans cette scène, Rudy dépose un ours en peluche sur la poitrine de l'homme avant que la Mort ne vienne emporter son âme. Ces actes de bonté réapparaissent tout au long du roman, montrant ainsi les deux côtés de la nature humaine.
-Les Allemands résistants
-Un sujet peu abordé concernant la Seconde Guerre mondiale est la résistance allemande en général. Il existait des mouvements de résistance au nazisme, tels que La Rose Blanche, un mouvement étudiant parti de Munich ou encore la tentative d'assassinat sur Hitler par le comte Claus Schenk von Stauffenberg, ainsi que de nombreux groupes sociaux-démocrates, communistes, catholiques, protestants et même des militaires[1].
-Mais il y eut également de nombreux actes isolés et gratuits comme celui de Hans Hubermann, tels que ceux qu'on a pu retrouver en Europe et en France notamment, où de simples citoyens ont, au péril de leur vie et de celle de leur famille, décidé d'aider des juifs ou d'autres populations persécutées par les nazis.
+          <t>Hans Hubermann</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Père nourricier de Liesel et mari de Rosa, Hans est un ancien soldat allemand pendant la Première Guerre mondiale, accordéoniste et peintre. Il développe une relation étroite et affectueuse avec Liesel et devient pour elle une source principale de force et de soutien tout au long du roman. Comme Liesel, il n'a pas beaucoup d'expérience en lecture. Ensemble, ils s’entraident pour lire et écrivent tous les mots qu’ils apprennent sur un mur du sous-sol avec ses pots de peinture blanche. Il aide Max parce que son père s'est sacrifié pour sauver Hans lors de la Première Guerre mondiale.
 </t>
         </is>
       </c>
@@ -641,13 +642,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cadre spatio-temporel</t>
+          <t>Les personnages</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Molching est une petite ville imaginaire d'Allemagne. Elle est située à quelques kilomètres de Munich, en Bavière et proche de Dachau, la ville où fut construit le premier camp de concentration important d'Allemagne qui fut mis en service le 31 mars 1933 ; c'est en outre l'un des rares camps bâtis avant la mort de l'ancien Président Hindenburg en 1934.
-L'histoire débute en janvier 1939, soit huit mois avant l'invasion de la Pologne et le début officiel de la Seconde Guerre mondiale. La fin de La Voleuse de livres se situe pendant les bombardements Alliés qui touchèrent l'Allemagne nazie l'été de l'année 1943. L'épilogue, situé à Sydney en Australie, se passe plusieurs dizaines d'années après les évènements narrés dans le roman, à la fin de la vie de Liesel Meminger.
+          <t>Rosa Hubermann</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mère adoptive de Liesel, à la langue acerbe, souvent abrasive, a une carrure «garde-robe» et un visage contrarié, des cheveux brun-gris très serrés, souvent ligotés dans un chignon et des yeux «chlorés». Malgré son tempérament, elle est une épouse aimante pour Hans et une mère pour Liesel. Pour compléter le revenu du ménage, elle lave et repasse cinq des ménages les plus riches de Molching.
 </t>
         </is>
       </c>
@@ -673,14 +679,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Les personnages</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Voleuse de livres a été publié pour la première fois en Australie en 2005 dans la catégorie des romans pour adultes, alors qu'il est publié aux États-Unis et en Europe en tant que roman pour jeunes adultes[2]. Il devient rapidement numéro un des ventes aux États-Unis, ainsi qu'au Royaume-Uni dans les deux éditions (adulte et jeunes adultes) peu de temps après leurs sorties respectives[2].
-Le roman est également salué par la critique américaine, britannique et australienne[3], la presse française lui réservant le même accueil[4].
-Dans The Guardian, un critique écrit que « La Voleuse de livres, best seller sur la liste du New York Times,  a été publié en tant que livre pour jeunes adultes dans certains pays, et comme un roman pour adultes dans d'autres. Il devrait certainement être lu par tous. Déconcertant, intrigant, triomphant et tragique, c’est un roman magistral à vous couper le souffle. Je ne pourrais jamais assez vous recommander de le lire[5],[6]. » En France, Le Monde des livres ajoute qu'il « célèbre l’amour de la lecture, les liens familiaux, la solidarité humaine. De quoi attendrir la Mort elle-même[7]. »
+          <t>Rudy Steiner</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le voisin de Liesel, Rudy, a les jambes maigres, les yeux bleus, les cheveux couleur citron et un penchant pour se mettre au milieu de situations où il ne devrait pas. Bien qu'ayant l'apparence d'un archétypal allemand, il ne soutient pas directement les nazis. En tant que membre d’un ménage relativement pauvre avec six enfants, Rudy a habituellement faim. Il est connu dans tout le quartier à cause de "l'incident de Jesse Owens", dans lequel il s'est coloré de charbon une nuit et a couru cent mètres sur le terrain de sport local. Il est doué sur le plan académique et sportif, ce qui attire l'attention des responsables du parti nazi et conduit à une tentative de recrutement. Son manque de soutien pour le parti nazi devient problématique à mesure que l'histoire avance. Rudy devient le meilleur ami de Liesel et finit par tomber amoureux d'elle, essayant toujours de l'embrasser.
 </t>
         </is>
       </c>
@@ -706,17 +716,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Les personnages</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Récompenses
-2006 : Kathleen Mitchell Award[8]
-2008 : Ena Noel Award[9]
-Nominations
-2007 : finaliste du prix Michael L. Printz pour l'excellence en littérature pour jeunes adultes[10]
-Quills Award (en) : meilleur roman pour jeunes adultes[11]</t>
+          <t>Max Vandenburg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un poing-combattant juif qui se réfugie dans le sous-sol de Hubermann contre le régime nazi. Il est le fils d'un soldat allemand de la Première Guerre mondiale qui a combattu aux côtés de Hans Hubermann. Ils ont noué une amitié étroite pendant la guerre. Il a les cheveux bruns comme une plume et les yeux bruns marrons. Pendant le règne de la terreur nazie, Hans accepte de mettre Max à l'abri et de le cacher du parti nazi. Pendant son séjour chez les Hubermann, Max se lie d'amitié avec Liesel, en raison de leur affinité commune pour les mots. Il lui écrit deux livres et lui présente un carnet contenant son récit de vie, ce qui aide Liesel à se développer en tant qu'écrivain et lecteur, ce qui lui sauve la vie des bombes.
+</t>
         </is>
       </c>
     </row>
@@ -741,10 +753,452 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ilsa Hermann</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épouse du maire de Molching qui emploie Rosa Hubermann. Elle est entrée dans la dépression après la mort de son fils unique pendant la Grande Guerre. Ilsa permet à Liesel de visiter et de lire des livres dans sa bibliothèque personnelle. Elle donne également à Liesel un petit livre noir, ce qui l'amène à écrire sa propre histoire, "La voleuse de livres".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Werner Meminger</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit frère de Liesel, décédé subitement dans le train avec sa mère, alors qu'il était transporté chez leurs parents d'accueil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Paula Meminger</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mère de Liesel n'est mentionnée que quelques fois dans l'histoire. Le père de Liesel avait été emmené par les nazis avant le roman parce qu'il était communiste et que sa mère - Paula Meminger - prenait ses deux enfants en famille d'accueil pour les sauver de la persécution nazie. La mère de Liesel a connu le même sort que son père, mais Liesel réalise finalement que sa mère l'a donnée pour la protéger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La mort</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout au long du roman, la Mort est omniprésente, d'une part puisque c'est elle qui raconte l'histoire, mais aussi parce que cette histoire se situe en période de guerre et dans un pays où le régime en place l'a érigée en modèle. Liesel est donc entourée par la Mort, avec qui elle va devoir composer pour survivre, grandir et garder l'espoir, prenant même des risques inouïs pour aider des fugitifs, comme Max.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Le pouvoir des mots</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liesel est La Voleuse de livres. Elle vole son premier livre lors de l'enterrement de son petit frère, et va, grâce à son père adoptif, à la femme du maire et à son ami Max, apprendre à lire et à écrire. Elle va également découvrir le pouvoir des mots, comme un apaisement dans une situation de stress et de tension (pendant les bombardements), mais aussi comme un moyen d'arriver à ses fins, moyen qu'utilisèrent aussi Hitler et son régime totalitaire pour asseoir leur domination sur les esprits du peuple allemand. Les livres qu'elle dérobe ou qu'on lui offre lui permettent finalement de s'évader lors des moments difficiles de son enfance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L'amitié</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande partie de l'intrigue tourne autour de l'amitié entre Liesel et de nombreuses personnes : Rudy, son meilleur ami, complice et camarade de jeux ; Hans, son père adoptif si compréhensif et intègre ; Max, le boxeur juif qui se cache dans la cave ; ou encore la femme du maire, Ilsa Hermann, la bienfaitrice qui lui permettra d'étendre sa culture littéraire et qui va la recueillir quand la Mort viendra lui ravir tous ceux à qui elle tenait.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>La beauté et la brutalité de l'humanité</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce paradoxe est de nombreuses fois exprimé dans ce récit, chaque fois énoncé avec détachement par la narratrice. La brutalité de l'homme a particulièrement été rattachée à l'Allemagne nazie. Les horreurs de cette guerre sont présentées au lecteur par le biais de la persécution et du traitement inhumain des Juifs. À l'opposé, les scènes telles que celle du pilote en train de mourir sont le reflet de la beauté de l'humanité. Dans cette scène, Rudy dépose un ours en peluche sur la poitrine de l'homme avant que la Mort ne vienne emporter son âme. Ces actes de bonté réapparaissent tout au long du roman, montrant ainsi les deux côtés de la nature humaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Thèmes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les Allemands résistants</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sujet peu abordé concernant la Seconde Guerre mondiale est la résistance allemande en général. Il existait des mouvements de résistance au nazisme, tels que La Rose Blanche, un mouvement étudiant parti de Munich ou encore la tentative d'assassinat sur Hitler par le comte Claus Schenk von Stauffenberg, ainsi que de nombreux groupes sociaux-démocrates, communistes, catholiques, protestants et même des militaires.
+Mais il y eut également de nombreux actes isolés et gratuits comme celui de Hans Hubermann, tels que ceux qu'on a pu retrouver en Europe et en France notamment, où de simples citoyens ont, au péril de leur vie et de celle de leur famille, décidé d'aider des juifs ou d'autres populations persécutées par les nazis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cadre spatio-temporel</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Molching est une petite ville imaginaire d'Allemagne. Elle est située à quelques kilomètres de Munich, en Bavière et proche de Dachau, la ville où fut construit le premier camp de concentration important d'Allemagne qui fut mis en service le 31 mars 1933 ; c'est en outre l'un des rares camps bâtis avant la mort de l'ancien Président Hindenburg en 1934.
+L'histoire débute en janvier 1939, soit huit mois avant l'invasion de la Pologne et le début officiel de la Seconde Guerre mondiale. La fin de La Voleuse de livres se situe pendant les bombardements Alliés qui touchèrent l'Allemagne nazie l'été de l'année 1943. L'épilogue, situé à Sydney en Australie, se passe plusieurs dizaines d'années après les évènements narrés dans le roman, à la fin de la vie de Liesel Meminger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Voleuse de livres a été publié pour la première fois en Australie en 2005 dans la catégorie des romans pour adultes, alors qu'il est publié aux États-Unis et en Europe en tant que roman pour jeunes adultes. Il devient rapidement numéro un des ventes aux États-Unis, ainsi qu'au Royaume-Uni dans les deux éditions (adulte et jeunes adultes) peu de temps après leurs sorties respectives.
+Le roman est également salué par la critique américaine, britannique et australienne, la presse française lui réservant le même accueil.
+Dans The Guardian, un critique écrit que « La Voleuse de livres, best seller sur la liste du New York Times,  a été publié en tant que livre pour jeunes adultes dans certains pays, et comme un roman pour adultes dans d'autres. Il devrait certainement être lu par tous. Déconcertant, intrigant, triomphant et tragique, c’est un roman magistral à vous couper le souffle. Je ne pourrais jamais assez vous recommander de le lire,. » En France, Le Monde des livres ajoute qu'il « célèbre l’amour de la lecture, les liens familiaux, la solidarité humaine. De quoi attendrir la Mort elle-même. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2006 : Kathleen Mitchell Award
+2008 : Ena Noel Award</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2007 : finaliste du prix Michael L. Printz pour l'excellence en littérature pour jeunes adultes
+Quills Award (en) : meilleur roman pour jeunes adultes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Voleuse_de_livres</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Une adaptation homonyme a été réalisée en 2013 par Brian Percival.
 </t>
